--- a/House_Index_5Y.xlsx
+++ b/House_Index_5Y.xlsx
@@ -5,27 +5,49 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kaichao\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lauyo\MATLAB\Projects\untitled\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3CB48739-05FF-4B7A-A8E4-3EA039C18955}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5FF131D-FC62-4690-B355-37158865F9C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="My Series" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Date</t>
   </si>
   <si>
     <t>House Price Index</t>
+  </si>
+  <si>
+    <t>Monthly Returns</t>
+  </si>
+  <si>
+    <t>Average Monthly Return</t>
+  </si>
+  <si>
+    <t>Yearly Return</t>
   </si>
 </sst>
 </file>
@@ -35,7 +57,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -58,6 +80,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -76,17 +105,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -388,27 +420,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B59"/>
+  <dimension ref="A1:E59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:C59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>43586</v>
       </c>
@@ -416,460 +460,716 @@
         <v>273.14</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>43617</v>
       </c>
       <c r="B3" s="3">
         <v>274.60000000000002</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C3" s="4">
+        <f>B3/B2-1</f>
+        <v>5.3452441971151288E-3</v>
+      </c>
+      <c r="D3" s="4">
+        <f>AVERAGE(C3:C59)</f>
+        <v>7.6962869148994558E-3</v>
+      </c>
+      <c r="E3" s="4">
+        <f>AVERAGE(E59)</f>
+        <v>7.0437539632212998E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>43647</v>
       </c>
       <c r="B4" s="3">
         <v>275.37</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C4" s="4">
+        <f t="shared" ref="C4:C59" si="0">B4/B3-1</f>
+        <v>2.8040786598688694E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>43678</v>
       </c>
       <c r="B5" s="3">
         <v>275.45</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C5" s="4">
+        <f t="shared" si="0"/>
+        <v>2.9051821186043547E-4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>43709</v>
       </c>
       <c r="B6" s="3">
         <v>275.88</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C6" s="4">
+        <f t="shared" si="0"/>
+        <v>1.5610818660374282E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>43739</v>
       </c>
       <c r="B7" s="3">
         <v>276.02</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C7" s="4">
+        <f t="shared" si="0"/>
+        <v>5.0746701464410293E-4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>43770</v>
       </c>
       <c r="B8" s="3">
         <v>276.51</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C8" s="4">
+        <f t="shared" si="0"/>
+        <v>1.7752336787189016E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>43800</v>
       </c>
       <c r="B9" s="3">
         <v>277.04000000000002</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C9" s="4">
+        <f t="shared" si="0"/>
+        <v>1.9167480380457569E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>43831</v>
       </c>
       <c r="B10" s="3">
         <v>278.17</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C10" s="4">
+        <f t="shared" si="0"/>
+        <v>4.0788333814611999E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>43862</v>
       </c>
       <c r="B11" s="3">
         <v>281.44</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C11" s="4">
+        <f t="shared" si="0"/>
+        <v>1.175540137326081E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>43891</v>
       </c>
       <c r="B12" s="3">
         <v>284.25</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C12" s="4">
+        <f t="shared" si="0"/>
+        <v>9.9843661171119535E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>43922</v>
       </c>
       <c r="B13" s="3">
         <v>286.5</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C13" s="4">
+        <f t="shared" si="0"/>
+        <v>7.9155672823219003E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>43952</v>
       </c>
       <c r="B14" s="3">
         <v>287.27999999999997</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C14" s="4">
+        <f t="shared" si="0"/>
+        <v>2.7225130890051741E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>43983</v>
       </c>
       <c r="B15" s="3">
         <v>290.83999999999997</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C15" s="4">
+        <f t="shared" si="0"/>
+        <v>1.2392091339459732E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>44013</v>
       </c>
       <c r="B16" s="3">
         <v>294.42</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C16" s="4">
+        <f t="shared" si="0"/>
+        <v>1.2309173428689535E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>44044</v>
       </c>
       <c r="B17" s="3">
         <v>298.33</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C17" s="4">
+        <f t="shared" si="0"/>
+        <v>1.3280347802459014E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>44075</v>
       </c>
       <c r="B18" s="3">
         <v>301.95999999999998</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C18" s="4">
+        <f t="shared" si="0"/>
+        <v>1.2167733717695084E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>44105</v>
       </c>
       <c r="B19" s="3">
         <v>305.23</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C19" s="4">
+        <f t="shared" si="0"/>
+        <v>1.082924890714021E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>44136</v>
       </c>
       <c r="B20" s="3">
         <v>307.38</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C20" s="4">
+        <f t="shared" si="0"/>
+        <v>7.0438685581364346E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>44166</v>
       </c>
       <c r="B21" s="3">
         <v>309.49</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C21" s="4">
+        <f t="shared" si="0"/>
+        <v>6.8644674344460199E-3</v>
+      </c>
+      <c r="E21" s="4">
+        <f>B21/B9-1</f>
+        <v>0.11713110020213691</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>44197</v>
       </c>
       <c r="B22" s="3">
         <v>312.45999999999998</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C22" s="4">
+        <f t="shared" si="0"/>
+        <v>9.5964328411255462E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>44228</v>
       </c>
       <c r="B23" s="3">
         <v>317.13</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C23" s="4">
+        <f t="shared" si="0"/>
+        <v>1.4945913076873873E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>44256</v>
       </c>
       <c r="B24" s="3">
         <v>324.31</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C24" s="4">
+        <f t="shared" si="0"/>
+        <v>2.2640557500078762E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>44287</v>
       </c>
       <c r="B25" s="3">
         <v>331.84</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C25" s="4">
+        <f t="shared" si="0"/>
+        <v>2.3218525484875574E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>44317</v>
       </c>
       <c r="B26" s="3">
         <v>339.25</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C26" s="4">
+        <f t="shared" si="0"/>
+        <v>2.2330038572806243E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>44348</v>
       </c>
       <c r="B27" s="3">
         <v>345.78</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C27" s="4">
+        <f t="shared" si="0"/>
+        <v>1.924834193072944E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>44378</v>
       </c>
       <c r="B28" s="3">
         <v>350.52</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C28" s="4">
+        <f t="shared" si="0"/>
+        <v>1.3708138122505709E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>44409</v>
       </c>
       <c r="B29" s="3">
         <v>352.9</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C29" s="4">
+        <f t="shared" si="0"/>
+        <v>6.789912130548803E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>44440</v>
       </c>
       <c r="B30" s="3">
         <v>355.39</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C30" s="4">
+        <f t="shared" si="0"/>
+        <v>7.0558231793709236E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>44470</v>
       </c>
       <c r="B31" s="3">
         <v>358.44</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C31" s="4">
+        <f t="shared" si="0"/>
+        <v>8.5821210501140222E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>44501</v>
       </c>
       <c r="B32" s="3">
         <v>361.45</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C32" s="4">
+        <f t="shared" si="0"/>
+        <v>8.3975002789866693E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>44531</v>
       </c>
       <c r="B33" s="3">
         <v>364.41</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C33" s="4">
+        <f t="shared" si="0"/>
+        <v>8.1892377922259119E-3</v>
+      </c>
+      <c r="E33" s="4">
+        <f>B33/B21-1</f>
+        <v>0.1774532295066078</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>44562</v>
       </c>
       <c r="B34" s="3">
         <v>369</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C34" s="4">
+        <f t="shared" si="0"/>
+        <v>1.2595702642627771E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>44593</v>
       </c>
       <c r="B35" s="3">
         <v>376.98</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C35" s="4">
+        <f t="shared" si="0"/>
+        <v>2.1626016260162695E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>44621</v>
       </c>
       <c r="B36" s="3">
         <v>385.03</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C36" s="4">
+        <f t="shared" si="0"/>
+        <v>2.1353917979733517E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>44652</v>
       </c>
       <c r="B37" s="3">
         <v>393.26</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C37" s="4">
+        <f t="shared" si="0"/>
+        <v>2.1374957795496474E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>44682</v>
       </c>
       <c r="B38" s="3">
         <v>399.52</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C38" s="4">
+        <f t="shared" si="0"/>
+        <v>1.5918222041397589E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>44713</v>
       </c>
       <c r="B39" s="3">
         <v>400.69</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C39" s="4">
+        <f t="shared" si="0"/>
+        <v>2.9285142170605294E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>44743</v>
       </c>
       <c r="B40" s="3">
         <v>397.78</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C40" s="4">
+        <f t="shared" si="0"/>
+        <v>-7.2624722353940019E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>44774</v>
       </c>
       <c r="B41" s="3">
         <v>394.14</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C41" s="4">
+        <f t="shared" si="0"/>
+        <v>-9.1507868671124593E-3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>44805</v>
       </c>
       <c r="B42" s="3">
         <v>393.97</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C42" s="4">
+        <f t="shared" si="0"/>
+        <v>-4.3131882072344752E-4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>44835</v>
       </c>
       <c r="B43" s="3">
         <v>392.83</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C43" s="4">
+        <f t="shared" si="0"/>
+        <v>-2.8936213417266599E-3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>44866</v>
       </c>
       <c r="B44" s="3">
         <v>390.78</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C44" s="4">
+        <f t="shared" si="0"/>
+        <v>-5.2185423720184643E-3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>44896</v>
       </c>
       <c r="B45" s="3">
         <v>388.78</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C45" s="4">
+        <f t="shared" si="0"/>
+        <v>-5.1179691898254331E-3</v>
+      </c>
+      <c r="E45" s="4">
+        <f>B45/B33-1</f>
+        <v>6.6875222963145742E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>44927</v>
       </c>
       <c r="B46" s="3">
         <v>388.67</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C46" s="4">
+        <f t="shared" si="0"/>
+        <v>-2.8293636503928798E-4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>44958</v>
       </c>
       <c r="B47" s="3">
         <v>394.25</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C47" s="4">
+        <f t="shared" si="0"/>
+        <v>1.4356652172794471E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>44986</v>
       </c>
       <c r="B48" s="3">
         <v>399.79</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C48" s="4">
+        <f t="shared" si="0"/>
+        <v>1.4051997463538468E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>45017</v>
       </c>
       <c r="B49" s="3">
         <v>406.13</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C49" s="4">
+        <f t="shared" si="0"/>
+        <v>1.5858325620951019E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>45047</v>
       </c>
       <c r="B50" s="3">
         <v>411.56</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C50" s="4">
+        <f t="shared" si="0"/>
+        <v>1.3370103168936165E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>45078</v>
       </c>
       <c r="B51" s="3">
         <v>414.48</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C51" s="4">
+        <f t="shared" si="0"/>
+        <v>7.0949557780153327E-3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>45108</v>
       </c>
       <c r="B52" s="3">
         <v>416.76</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C52" s="4">
+        <f t="shared" si="0"/>
+        <v>5.500868558193428E-3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>45139</v>
       </c>
       <c r="B53" s="3">
         <v>417.28</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C53" s="4">
+        <f t="shared" si="0"/>
+        <v>1.2477205106056211E-3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>45170</v>
       </c>
       <c r="B54" s="3">
         <v>418.71</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C54" s="4">
+        <f t="shared" si="0"/>
+        <v>3.4269555214723191E-3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>45200</v>
       </c>
       <c r="B55" s="3">
         <v>417.99</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C55" s="4">
+        <f t="shared" si="0"/>
+        <v>-1.7195672422439801E-3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>45231</v>
       </c>
       <c r="B56" s="3">
         <v>417.06</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C56" s="4">
+        <f t="shared" si="0"/>
+        <v>-2.2249336108519646E-3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>45261</v>
       </c>
       <c r="B57" s="3">
         <v>414.84</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C57" s="4">
+        <f t="shared" si="0"/>
+        <v>-5.3229751114948209E-3</v>
+      </c>
+      <c r="E57" s="4">
+        <f>B57/B45-1</f>
+        <v>6.7030197026596072E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>45292</v>
       </c>
       <c r="B58" s="3">
         <v>413.72</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C58" s="4">
+        <f t="shared" si="0"/>
+        <v>-2.699836081380691E-3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>45323</v>
       </c>
       <c r="B59" s="3">
         <v>422.02</v>
+      </c>
+      <c r="C59" s="4">
+        <f t="shared" si="0"/>
+        <v>2.0061877598375633E-2</v>
+      </c>
+      <c r="E59" s="4">
+        <f>B59/B47-1</f>
+        <v>7.0437539632212998E-2</v>
       </c>
     </row>
   </sheetData>
